--- a/aligned_intensities_to_line_1.xlsx
+++ b/aligned_intensities_to_line_1.xlsx
@@ -470,19 +470,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29.62835</v>
+        <v>6.098318353451651</v>
       </c>
       <c r="C2" t="n">
-        <v>739.9231600000001</v>
+        <v>119.3626246429368</v>
       </c>
       <c r="D2" t="n">
-        <v>1222.52695</v>
+        <v>208.9113921999677</v>
       </c>
       <c r="E2" t="n">
-        <v>194.84745</v>
+        <v>37.79257155444578</v>
       </c>
       <c r="F2" t="n">
-        <v>867.8927</v>
+        <v>187.0389133439415</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>0.2945</v>
       </c>
       <c r="B3" t="n">
-        <v>28.25358</v>
+        <v>5.711154935210818</v>
       </c>
       <c r="C3" t="n">
-        <v>723.2544657431953</v>
+        <v>115.8229694420867</v>
       </c>
       <c r="D3" t="n">
-        <v>1185.96356132223</v>
+        <v>199.3476873818751</v>
       </c>
       <c r="E3" t="n">
-        <v>189.5410905262688</v>
+        <v>36.29224744111269</v>
       </c>
       <c r="F3" t="n">
-        <v>852.6950119861696</v>
+        <v>177.6895094393331</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +510,19 @@
         <v>0.6045</v>
       </c>
       <c r="B4" t="n">
-        <v>24.35257</v>
+        <v>4.836194925047832</v>
       </c>
       <c r="C4" t="n">
-        <v>654.838569877568</v>
+        <v>104.1330628080347</v>
       </c>
       <c r="D4" t="n">
-        <v>1072.633877916509</v>
+        <v>177.4538538156526</v>
       </c>
       <c r="E4" t="n">
-        <v>178.8754672793916</v>
+        <v>32.81513405645283</v>
       </c>
       <c r="F4" t="n">
-        <v>804.5637057779503</v>
+        <v>161.1994195161129</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         <v>0.9145</v>
       </c>
       <c r="B5" t="n">
-        <v>19.33369</v>
+        <v>3.842753080017701</v>
       </c>
       <c r="C5" t="n">
-        <v>550.5045983568743</v>
+        <v>86.74756158294507</v>
       </c>
       <c r="D5" t="n">
-        <v>906.1652801413683</v>
+        <v>147.5476015661819</v>
       </c>
       <c r="E5" t="n">
-        <v>161.4318742930764</v>
+        <v>28.22718168701295</v>
       </c>
       <c r="F5" t="n">
-        <v>719.0703787993701</v>
+        <v>137.4333019474238</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
         <v>1.2245</v>
       </c>
       <c r="B6" t="n">
-        <v>14.54754</v>
+        <v>2.898194467308862</v>
       </c>
       <c r="C6" t="n">
-        <v>434.6995664259545</v>
+        <v>67.65216821181272</v>
       </c>
       <c r="D6" t="n">
-        <v>707.8776057020091</v>
+        <v>114.5535295539472</v>
       </c>
       <c r="E6" t="n">
-        <v>134.6336730811128</v>
+        <v>22.89277473314287</v>
       </c>
       <c r="F6" t="n">
-        <v>603.5550197235001</v>
+        <v>110.6919748737609</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
         <v>1.5345</v>
       </c>
       <c r="B7" t="n">
-        <v>9.328849999999999</v>
+        <v>1.862726245796055</v>
       </c>
       <c r="C7" t="n">
-        <v>314.7778122013574</v>
+        <v>48.01136431386367</v>
       </c>
       <c r="D7" t="n">
-        <v>498.2796183646512</v>
+        <v>80.76112207471671</v>
       </c>
       <c r="E7" t="n">
-        <v>103.8431353394028</v>
+        <v>17.39388902655974</v>
       </c>
       <c r="F7" t="n">
-        <v>469.8463999350575</v>
+        <v>83.351748338193</v>
       </c>
     </row>
     <row r="8">
@@ -590,19 +590,19 @@
         <v>1.8445</v>
       </c>
       <c r="B8" t="n">
-        <v>5.27456</v>
+        <v>1.056339580261091</v>
       </c>
       <c r="C8" t="n">
-        <v>206.4500334575888</v>
+        <v>30.58334478622426</v>
       </c>
       <c r="D8" t="n">
-        <v>310.5319992471855</v>
+        <v>51.37097805349502</v>
       </c>
       <c r="E8" t="n">
-        <v>73.03356056600266</v>
+        <v>12.01585491497161</v>
       </c>
       <c r="F8" t="n">
-        <v>338.6254570180934</v>
+        <v>57.72843679101585</v>
       </c>
     </row>
     <row r="9">
@@ -610,19 +610,19 @@
         <v>2.1545</v>
       </c>
       <c r="B9" t="n">
-        <v>3.10559</v>
+        <v>0.5900905092993463</v>
       </c>
       <c r="C9" t="n">
-        <v>117.7027029684472</v>
+        <v>17.05472871791185</v>
       </c>
       <c r="D9" t="n">
-        <v>168.9354937824798</v>
+        <v>28.95795974315191</v>
       </c>
       <c r="E9" t="n">
-        <v>46.49423624850309</v>
+        <v>7.709069837315686</v>
       </c>
       <c r="F9" t="n">
-        <v>213.5436518883235</v>
+        <v>35.94716258380841</v>
       </c>
     </row>
     <row r="10">
@@ -630,19 +630,19 @@
         <v>2.4645</v>
       </c>
       <c r="B10" t="n">
-        <v>1.53537</v>
+        <v>0.2993207904530344</v>
       </c>
       <c r="C10" t="n">
-        <v>57.71060225508064</v>
+        <v>8.522832224674893</v>
       </c>
       <c r="D10" t="n">
-        <v>77.24593378323614</v>
+        <v>13.93755892931096</v>
       </c>
       <c r="E10" t="n">
-        <v>26.43814671545083</v>
+        <v>4.358136431856412</v>
       </c>
       <c r="F10" t="n">
-        <v>117.694570366452</v>
+        <v>20.14266458734221</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
         <v>2.7745</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8472500000000001</v>
+        <v>0.1536849471206947</v>
       </c>
       <c r="C11" t="n">
-        <v>24.02548017892331</v>
+        <v>3.756282394665451</v>
       </c>
       <c r="D11" t="n">
-        <v>31.91921185937756</v>
+        <v>5.972778142470222</v>
       </c>
       <c r="E11" t="n">
-        <v>13.46194</v>
+        <v>2.12254722767549</v>
       </c>
       <c r="F11" t="n">
-        <v>55.3239629020346</v>
+        <v>9.633382630753108</v>
       </c>
     </row>
   </sheetData>
